--- a/input/SampleExcelFiles/QueueItem_Example_Reports.xlsx
+++ b/input/SampleExcelFiles/QueueItem_Example_Reports.xlsx
@@ -1,15 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E166B775-A9EB-4041-9870-3F828F9981E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="5925"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="June Total" sheetId="3" r:id="rId1"/>
     <sheet name="June Report" sheetId="2" r:id="rId2"/>
-    <sheet name="July Report" sheetId="1" r:id="rId3"/>
+    <sheet name="Total Check" sheetId="5" r:id="rId3"/>
+    <sheet name="July Report" sheetId="1" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
   <extLst>
@@ -21,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="58">
   <si>
     <t>Name</t>
   </si>
@@ -192,12 +194,15 @@
   </si>
   <si>
     <t>Not On-Us Total</t>
+  </si>
+  <si>
+    <t>July Total Check</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -522,14 +527,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:C4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="23.6640625" customWidth="1"/>
+    <col min="2" max="2" width="31.109375" customWidth="1"/>
+    <col min="3" max="3" width="19.21875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>54</v>
       </c>
@@ -540,7 +552,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>35630</v>
       </c>
@@ -557,22 +569,22 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.7109375" customWidth="1"/>
+    <col min="1" max="1" width="17.6640625" customWidth="1"/>
     <col min="2" max="2" width="12" customWidth="1"/>
-    <col min="3" max="3" width="14.85546875" customWidth="1"/>
-    <col min="4" max="4" width="16.7109375" customWidth="1"/>
+    <col min="3" max="3" width="14.88671875" customWidth="1"/>
+    <col min="4" max="4" width="16.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="28.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -586,7 +598,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -600,7 +612,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -614,7 +626,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
@@ -628,7 +640,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -642,7 +654,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>13</v>
       </c>
@@ -656,7 +668,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>33</v>
       </c>
@@ -670,7 +682,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>34</v>
       </c>
@@ -684,7 +696,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>35</v>
       </c>
@@ -698,7 +710,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>36</v>
       </c>
@@ -712,7 +724,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>37</v>
       </c>
@@ -726,7 +738,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>38</v>
       </c>
@@ -740,7 +752,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>39</v>
       </c>
@@ -754,7 +766,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>40</v>
       </c>
@@ -768,7 +780,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>26</v>
       </c>
@@ -782,7 +794,7 @@
         <v>1130</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>42</v>
       </c>
@@ -796,7 +808,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>27</v>
       </c>
@@ -810,7 +822,7 @@
         <v>1135</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>43</v>
       </c>
@@ -824,7 +836,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>44</v>
       </c>
@@ -838,7 +850,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>31</v>
       </c>
@@ -852,7 +864,7 @@
         <v>1155</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>46</v>
       </c>
@@ -866,7 +878,7 @@
         <v>1165</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>45</v>
       </c>
@@ -880,7 +892,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>47</v>
       </c>
@@ -894,7 +906,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>48</v>
       </c>
@@ -908,7 +920,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>49</v>
       </c>
@@ -922,7 +934,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>50</v>
       </c>
@@ -936,7 +948,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>51</v>
       </c>
@@ -950,7 +962,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>52</v>
       </c>
@@ -964,7 +976,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>53</v>
       </c>
@@ -978,7 +990,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>6</v>
       </c>
@@ -992,7 +1004,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>14</v>
       </c>
@@ -1006,7 +1018,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>15</v>
       </c>
@@ -1020,7 +1032,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>16</v>
       </c>
@@ -1034,7 +1046,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>17</v>
       </c>
@@ -1048,7 +1060,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>18</v>
       </c>
@@ -1062,7 +1074,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>19</v>
       </c>
@@ -1076,7 +1088,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>20</v>
       </c>
@@ -1090,7 +1102,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>7</v>
       </c>
@@ -1104,7 +1116,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>9</v>
       </c>
@@ -1118,7 +1130,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>8</v>
       </c>
@@ -1132,7 +1144,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>10</v>
       </c>
@@ -1146,7 +1158,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>41</v>
       </c>
@@ -1160,7 +1172,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>21</v>
       </c>
@@ -1174,7 +1186,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>22</v>
       </c>
@@ -1188,7 +1200,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>23</v>
       </c>
@@ -1202,7 +1214,7 @@
         <v>1115</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>24</v>
       </c>
@@ -1216,7 +1228,7 @@
         <v>1120</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>28</v>
       </c>
@@ -1230,7 +1242,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>29</v>
       </c>
@@ -1244,7 +1256,7 @@
         <v>1145</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>30</v>
       </c>
@@ -1258,7 +1270,7 @@
         <v>1150</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>25</v>
       </c>
@@ -1272,7 +1284,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>32</v>
       </c>
@@ -1287,7 +1299,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:D51">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D51">
     <sortCondition ref="C1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1295,23 +1307,74 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{296F0170-3F77-49F6-821F-A06328EBD2E7}">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>35630</v>
+      </c>
+      <c r="B2">
+        <v>179809</v>
+      </c>
+      <c r="C2">
+        <v>19565</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>35630</v>
+      </c>
+      <c r="B4">
+        <v>89075</v>
+      </c>
+      <c r="C4">
+        <v>19565</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.42578125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="17.44140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="20.140625" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.85546875" style="1"/>
+    <col min="3" max="3" width="12.88671875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="20.109375" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="2" customFormat="1" ht="34.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" s="2" customFormat="1" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1325,7 +1388,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -1339,7 +1402,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -1353,7 +1416,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -1367,7 +1430,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
@@ -1381,7 +1444,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
@@ -1395,7 +1458,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
@@ -1409,7 +1472,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
@@ -1423,7 +1486,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
@@ -1437,7 +1500,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>12</v>
       </c>
@@ -1451,7 +1514,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>13</v>
       </c>
@@ -1465,7 +1528,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>33</v>
       </c>
@@ -1479,7 +1542,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>34</v>
       </c>
@@ -1493,7 +1556,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>35</v>
       </c>
@@ -1507,7 +1570,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>36</v>
       </c>
@@ -1521,7 +1584,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>37</v>
       </c>
@@ -1535,7 +1598,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>38</v>
       </c>
@@ -1549,7 +1612,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>39</v>
       </c>
@@ -1563,7 +1626,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>40</v>
       </c>
@@ -1577,7 +1640,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>41</v>
       </c>
@@ -1591,7 +1654,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>42</v>
       </c>
@@ -1605,7 +1668,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>43</v>
       </c>
@@ -1619,7 +1682,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>44</v>
       </c>
@@ -1633,7 +1696,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>45</v>
       </c>
@@ -1647,7 +1710,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>47</v>
       </c>
@@ -1661,7 +1724,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>48</v>
       </c>
@@ -1675,7 +1738,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>49</v>
       </c>
@@ -1689,7 +1752,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>50</v>
       </c>
@@ -1703,7 +1766,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>51</v>
       </c>
@@ -1717,7 +1780,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>52</v>
       </c>
@@ -1731,7 +1794,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>53</v>
       </c>
@@ -1745,7 +1808,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>14</v>
       </c>
@@ -1759,7 +1822,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>15</v>
       </c>
@@ -1773,7 +1836,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>16</v>
       </c>
@@ -1787,7 +1850,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>17</v>
       </c>
@@ -1801,7 +1864,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>18</v>
       </c>
@@ -1815,7 +1878,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>19</v>
       </c>
@@ -1829,7 +1892,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>20</v>
       </c>
@@ -1843,7 +1906,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>21</v>
       </c>
@@ -1857,7 +1920,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>22</v>
       </c>
@@ -1871,7 +1934,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>23</v>
       </c>
@@ -1885,7 +1948,7 @@
         <v>1115</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>24</v>
       </c>
@@ -1899,7 +1962,7 @@
         <v>1120</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>25</v>
       </c>
@@ -1913,7 +1976,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>26</v>
       </c>
@@ -1927,7 +1990,7 @@
         <v>1130</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>27</v>
       </c>
@@ -1941,7 +2004,7 @@
         <v>1135</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>28</v>
       </c>
@@ -1955,7 +2018,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>29</v>
       </c>
@@ -1969,7 +2032,7 @@
         <v>1145</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>30</v>
       </c>
@@ -1983,7 +2046,7 @@
         <v>1150</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>31</v>
       </c>
@@ -1997,7 +2060,7 @@
         <v>1155</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>32</v>
       </c>
@@ -2011,7 +2074,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>46</v>
       </c>
@@ -2032,18 +2095,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <SharedWithUsers xmlns="b7a32e9a-83ed-4fc1-afd2-24748cc0fd29">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-    <MediaLengthInSeconds xmlns="1103b93a-9ee9-47ae-aa92-e31c5ef9a1ca" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2264,31 +2321,54 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <SharedWithUsers xmlns="b7a32e9a-83ed-4fc1-afd2-24748cc0fd29">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+    <MediaLengthInSeconds xmlns="1103b93a-9ee9-47ae-aa92-e31c5ef9a1ca" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5F944AC5-52B0-4254-AF43-291920FCC6E5}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{575BB06A-D741-4D1B-B97F-E9A46B311E82}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{068B3497-E28F-44CF-B46B-1AE98E3DD5C8}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{068B3497-E28F-44CF-B46B-1AE98E3DD5C8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="1103b93a-9ee9-47ae-aa92-e31c5ef9a1ca"/>
+    <ds:schemaRef ds:uri="b7a32e9a-83ed-4fc1-afd2-24748cc0fd29"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{575BB06A-D741-4D1B-B97F-E9A46B311E82}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5F944AC5-52B0-4254-AF43-291920FCC6E5}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="b7a32e9a-83ed-4fc1-afd2-24748cc0fd29"/>
+    <ds:schemaRef ds:uri="1103b93a-9ee9-47ae-aa92-e31c5ef9a1ca"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>